--- a/dtpu_configurations/only_integer16/50mhz/mxu_6x6/timing.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_6x6/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>7.981391429901123</v>
+        <v>6.317177772521973</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.026172397658228874</v>
+        <v>0.02816302701830864</v>
       </c>
     </row>
   </sheetData>
